--- a/Creating Username and Passwords for AutoHotkey From PowerSchool.xlsx
+++ b/Creating Username and Passwords for AutoHotkey From PowerSchool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnw\Documents\GitHub\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C296EEB-B3D8-499B-9AE4-F44DD5E3B776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA0D4EA-28B1-414A-86EA-5C74A0F513C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47280" yWindow="-8820" windowWidth="8535" windowHeight="8865" activeTab="1" xr2:uid="{23982750-DC55-4C65-8E8E-24AF53FA83DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{23982750-DC55-4C65-8E8E-24AF53FA83DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3816,7 +3816,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4207,13 +4207,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D507C93C-8AE2-4AF0-9D81-84F10CA658AE}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4222,7 +4227,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="19.5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4239,7 +4244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="19.5">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -4256,7 +4261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4273,7 +4278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="19.5">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4290,7 +4295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="29.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -4307,7 +4312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="19.5">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -4324,7 +4329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="19.5">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -4341,7 +4346,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="29.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -4358,7 +4363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="19.5">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -4375,7 +4380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="29.25">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -4392,7 +4397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="19.5">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -4409,7 +4414,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="19.5">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -4426,7 +4431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="29.25">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -4443,7 +4448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="19.5">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -4460,7 +4465,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="19.5">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -4477,7 +4482,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="19.5">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -4494,7 +4499,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="29.25">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
@@ -4511,7 +4516,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="45">
       <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
@@ -4528,7 +4533,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="45">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
@@ -4545,7 +4550,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="29.25">
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
@@ -4562,7 +4567,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="45">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -4593,19 +4598,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22B1663-C147-4F1E-80D9-645B39C8021C}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" customWidth="1"/>
-    <col min="7" max="7" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>1252</v>
       </c>
@@ -4625,7 +4630,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -4657,7 +4662,7 @@
         <v>:*:plizbeth984::when499 ;Physics 111, 21-22, T1, 1st Period</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -4689,7 +4694,7 @@
         <v>:*:pjesus255::xku88n ;Physics 111, 21-22, T1, 1st Period</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4721,7 +4726,7 @@
         <v>:*:pmadison161::side372 ;Physics 111, 21-22, T1, 1st Period</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4753,7 +4758,7 @@
         <v>:*:pwyatt381::what650 ;Physics 111, 21-22, T1, 1st Period</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -4785,7 +4790,7 @@
         <v>:*:pjonathan925::a7encr ;Physics 111, 21-22, T1, 1st Period</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -4817,7 +4822,7 @@
         <v>:*:pweilan185::9icjib ;Physics 111, 21-22, T1, 1st Period</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -4849,7 +4854,7 @@
         <v>:*:pjaime002::sled562 ;Physics 111, 21-22, T1, 1st Period</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -4881,7 +4886,7 @@
         <v>:*:pmccarty874::rest337 ;Physics 111, 21-22, T1, 1st Period</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -4913,7 +4918,7 @@
         <v>:*:pjennifer181::frog279 ;Physics 111, 21-22, T1, 1st Period</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -4945,7 +4950,7 @@
         <v>:*:pedgar712::made727 ;Physics 111, 21-22, T1, 1st Period</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -4977,7 +4982,7 @@
         <v>:*:pmarcial469::love432 ;Physics 111, 21-22, T1, 1st Period</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -5009,7 +5014,7 @@
         <v>:*:pjazmin430::na0em0 ;Physics 111, 21-22, T1, 1st Period</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -5041,7 +5046,7 @@
         <v>:*:palexander618::gogbw0 ;Physics 111, 21-22, T1, 1st Period</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -5073,7 +5078,7 @@
         <v>:*:panahie497::y2j7s3 ;Physics 111, 21-22, T1, 1st Period</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -5105,7 +5110,7 @@
         <v>:*:pkevin075::feet840 ;Physics 111, 21-22, T1, 1st Period</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -5137,7 +5142,7 @@
         <v>:*:pperla213::3pfni3 ;Physics 111, 21-22, T1, 1st Period</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
@@ -5169,7 +5174,7 @@
         <v>:*:pbrenda006::mess653 ;Physics 111, 21-22, T1, 1st Period</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -5201,7 +5206,7 @@
         <v>:*:pchristina001::moon624 ;Physics 111, 21-22, T1, 1st Period</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
         <v>54</v>
       </c>
@@ -5233,7 +5238,7 @@
         <v>:*:peric783::1i9wbj ;Physics 111, 21-22, T1, 1st Period</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -5265,7 +5270,7 @@
         <v>:*:pjose147::read731 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
@@ -5297,7 +5302,7 @@
         <v>:*:pmercadez947::itgzd7 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
@@ -5329,7 +5334,7 @@
         <v>:*:pelizabeth023::tale834 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
         <v>69</v>
       </c>
@@ -5361,7 +5366,7 @@
         <v>:*:pjacob016::they146 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
         <v>72</v>
       </c>
@@ -5393,7 +5398,7 @@
         <v>:*:pjulio775::soft220 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
         <v>75</v>
       </c>
@@ -5425,7 +5430,7 @@
         <v>:*:pleonardo058::007u2h ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
         <v>78</v>
       </c>
@@ -5457,7 +5462,7 @@
         <v>:*:pangel003::unit858 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
         <v>81</v>
       </c>
@@ -5489,7 +5494,7 @@
         <v>:*:pclemente001::fine118 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
         <v>84</v>
       </c>
@@ -5521,7 +5526,7 @@
         <v>:*:ptanner829::sent574 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
         <v>87</v>
       </c>
@@ -5553,7 +5558,7 @@
         <v>:*:pyareli706::8shzki ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
         <v>90</v>
       </c>
@@ -5585,7 +5590,7 @@
         <v>:*:ppablo257::feet114 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
         <v>93</v>
       </c>
@@ -5617,7 +5622,7 @@
         <v>:*:pvictor676::spot891 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
         <v>96</v>
       </c>
@@ -5649,7 +5654,7 @@
         <v>:*:pbetzaida001::cane937 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
         <v>99</v>
       </c>
@@ -5681,7 +5686,7 @@
         <v>:*:panthony020::room807 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
         <v>102</v>
       </c>
@@ -5713,7 +5718,7 @@
         <v>:*:pcynthia121::fx0ucf ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
         <v>105</v>
       </c>
@@ -5745,7 +5750,7 @@
         <v>:*:pjoshua759::hall324 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
         <v>108</v>
       </c>
@@ -5777,7 +5782,7 @@
         <v>:*:pspencer004::give048 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
         <v>111</v>
       </c>
@@ -5809,7 +5814,7 @@
         <v>:*:pmarelene675::soap910 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
         <v>114</v>
       </c>
@@ -5841,7 +5846,7 @@
         <v>:*:pdannella497::w9jqze ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -5873,7 +5878,7 @@
         <v>:*:plorena854::boil393 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -5905,7 +5910,7 @@
         <v>:*:phailey474::land463 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
         <v>123</v>
       </c>
@@ -5937,7 +5942,7 @@
         <v>:*:pashley711::stow629 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
         <v>126</v>
       </c>
@@ -5969,7 +5974,7 @@
         <v>:*:pamethyst958::sofa829 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
         <v>129</v>
       </c>
@@ -6001,7 +6006,7 @@
         <v>:*:pjesse002::bask282 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
         <v>132</v>
       </c>
@@ -6033,7 +6038,7 @@
         <v>:*:pjosette571::aho14r ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
         <v>135</v>
       </c>
@@ -6065,7 +6070,7 @@
         <v>:*:palexander027::rage552 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
         <v>138</v>
       </c>
@@ -6097,7 +6102,7 @@
         <v>:*:pgerald914::hbdijd ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
         <v>141</v>
       </c>
@@ -6129,7 +6134,7 @@
         <v>:*:prene565::move238 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
         <v>144</v>
       </c>
@@ -6161,7 +6166,7 @@
         <v>:*:paustin790::plot113 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
         <v>147</v>
       </c>
@@ -6193,7 +6198,7 @@
         <v>:*:palexis755::like588 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
         <v>150</v>
       </c>
@@ -6225,7 +6230,7 @@
         <v>:*:pjolie001::bell528 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10">
       <c r="A52" s="2" t="s">
         <v>153</v>
       </c>
@@ -6257,7 +6262,7 @@
         <v>:*:prafael590::wtu5r1 ;MOS, 21-22,T1, 2nd Period</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
         <v>157</v>
       </c>
@@ -6289,7 +6294,7 @@
         <v>:*:prodrigo005::zero075 ;Waves, 21-22, T1, 3rd Period</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10">
       <c r="A54" s="2" t="s">
         <v>160</v>
       </c>
@@ -6321,7 +6326,7 @@
         <v>:*:pjorge718::deal777 ;Waves, 21-22, T1, 3rd Period</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
         <v>163</v>
       </c>
@@ -6353,7 +6358,7 @@
         <v>:*:pandrew016::join083 ;Waves, 21-22, T1, 3rd Period</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
         <v>166</v>
       </c>
@@ -6385,7 +6390,7 @@
         <v>:*:ptatyana375::hoppwk ;Waves, 21-22, T1, 3rd Period</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
         <v>169</v>
       </c>
@@ -6417,7 +6422,7 @@
         <v>:*:plogan959::qcfwme ;Waves, 21-22, T1, 3rd Period</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10">
       <c r="A58" s="2" t="s">
         <v>10</v>
       </c>
@@ -6449,7 +6454,7 @@
         <v>:*:pwyatt381::what650 ;Waves, 21-22, T1, 3rd Period</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10">
       <c r="A59" s="2" t="s">
         <v>172</v>
       </c>
@@ -6481,7 +6486,7 @@
         <v>:*:pmiguel295::list446 ;Waves, 21-22, T1, 3rd Period</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10">
       <c r="A60" s="2" t="s">
         <v>175</v>
       </c>
@@ -6513,7 +6518,7 @@
         <v>:*:pnathan156::3nhtyh ;Waves, 21-22, T1, 3rd Period</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
         <v>178</v>
       </c>
@@ -6545,7 +6550,7 @@
         <v>:*:pruben982::gfpkoo ;Waves, 21-22, T1, 3rd Period</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10">
       <c r="A62" s="2" t="s">
         <v>181</v>
       </c>
@@ -6577,7 +6582,7 @@
         <v>:*:ptyler747::cwi7ir ;Waves, 21-22, T1, 3rd Period</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10">
       <c r="A63" s="2" t="s">
         <v>184</v>
       </c>
@@ -6609,7 +6614,7 @@
         <v>:*:pjustice756::7utbmi ;Waves, 21-22, T1, 3rd Period</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10">
       <c r="A64" s="2" t="s">
         <v>187</v>
       </c>
@@ -6641,7 +6646,7 @@
         <v>:*:pricardo552::4id77q ;Waves, 21-22, T1, 3rd Period</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10">
       <c r="A65" s="2" t="s">
         <v>190</v>
       </c>
@@ -6673,7 +6678,7 @@
         <v>:*:pgauge001::rise750 ;Waves, 21-22, T1, 3rd Period</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10">
       <c r="A66" s="2" t="s">
         <v>193</v>
       </c>
@@ -6705,7 +6710,7 @@
         <v>:*:pkeren169::oxkth2 ;Waves, 21-22, T1, 3rd Period</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10">
       <c r="A67" s="2" t="s">
         <v>196</v>
       </c>
@@ -6737,7 +6742,7 @@
         <v>:*:pcelene340::9dpn79 ;Waves, 21-22, T1, 3rd Period</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10">
       <c r="A68" s="2" t="s">
         <v>199</v>
       </c>
@@ -6769,7 +6774,7 @@
         <v>:*:palex006::oyzgd5 ;Waves, 21-22, T1, 3rd Period</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10">
       <c r="A69" s="2" t="s">
         <v>202</v>
       </c>
@@ -6801,7 +6806,7 @@
         <v>:*:pesthelia706::tube580 ;Waves, 21-22, T1, 3rd Period</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10">
       <c r="A70" s="2" t="s">
         <v>205</v>
       </c>
@@ -6833,7 +6838,7 @@
         <v>:*:pjoaquin458::seam335 ;Waves, 21-22, T1, 3rd Period</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10">
       <c r="A71" s="2" t="s">
         <v>208</v>
       </c>
@@ -6865,7 +6870,7 @@
         <v>:*:pjd001::cool535 ;Waves, 21-22, T1, 3rd Period</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10">
       <c r="A72" s="2" t="s">
         <v>212</v>
       </c>
@@ -6897,7 +6902,7 @@
         <v>:*:pafton144::gray243 ;Waves, 21-22, T1, 6th Period</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10">
       <c r="A73" s="2" t="s">
         <v>215</v>
       </c>
@@ -6929,7 +6934,7 @@
         <v>:*:pjose533::brag379 ;Waves, 21-22, T1, 6th Period</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10">
       <c r="A74" s="2" t="s">
         <v>218</v>
       </c>
@@ -6961,7 +6966,7 @@
         <v>:*:pjohn917::cram923 ;Waves, 21-22, T1, 6th Period</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
         <v>221</v>
       </c>
@@ -6993,7 +6998,7 @@
         <v>:*:plupita002::list987 ;Waves, 21-22, T1, 6th Period</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10">
       <c r="A76" s="2" t="s">
         <v>224</v>
       </c>
@@ -7025,7 +7030,7 @@
         <v>:*:pdamien375::n5ar9h ;Waves, 21-22, T1, 6th Period</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10">
       <c r="A77" s="2" t="s">
         <v>227</v>
       </c>
@@ -7057,7 +7062,7 @@
         <v>:*:pelizabeth592::turn673 ;Waves, 21-22, T1, 6th Period</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
         <v>230</v>
       </c>
@@ -7089,7 +7094,7 @@
         <v>:*:pilona834::p043v6 ;Waves, 21-22, T1, 6th Period</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10">
       <c r="A79" s="2" t="s">
         <v>233</v>
       </c>
@@ -7121,7 +7126,7 @@
         <v>:*:pjacob421::mbgvzv ;Waves, 21-22, T1, 6th Period</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10">
       <c r="A80" s="2" t="s">
         <v>236</v>
       </c>
@@ -7153,7 +7158,7 @@
         <v>:*:pgerardo574::bbjtt8 ;Waves, 21-22, T1, 6th Period</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" ht="19.5">
       <c r="A81" s="2" t="s">
         <v>239</v>
       </c>
@@ -7185,7 +7190,7 @@
         <v>:*:pchristophe080::hind019 ;Waves, 21-22, T1, 6th Period</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10">
       <c r="A82" s="2" t="s">
         <v>242</v>
       </c>
@@ -7217,7 +7222,7 @@
         <v>:*:pbennett352::dj76br ;Waves, 21-22, T1, 6th Period</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10">
       <c r="A83" s="2" t="s">
         <v>245</v>
       </c>
@@ -7249,7 +7254,7 @@
         <v>:*:psayda106::ezcu73 ;Waves, 21-22, T1, 6th Period</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10">
       <c r="A84" s="2" t="s">
         <v>248</v>
       </c>
@@ -7281,7 +7286,7 @@
         <v>:*:pdianela434::busy068 ;Waves, 21-22, T1, 6th Period</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10">
       <c r="A85" s="2" t="s">
         <v>251</v>
       </c>
@@ -7313,7 +7318,7 @@
         <v>:*:pjulian187::bwh9xq ;Waves, 21-22, T1, 6th Period</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10">
       <c r="A86" s="2" t="s">
         <v>135</v>
       </c>
@@ -7345,7 +7350,7 @@
         <v>:*:palexander027::rage552 ;Waves, 21-22, T1, 6th Period</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10">
       <c r="A87" s="2" t="s">
         <v>254</v>
       </c>
@@ -7377,7 +7382,7 @@
         <v>:*:palex222::3dioqw ;Waves, 21-22, T1, 6th Period</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="19.5">
       <c r="A88" s="2" t="s">
         <v>257</v>
       </c>
@@ -7409,7 +7414,7 @@
         <v>:*:pchristopher024::food877 ;Waves, 21-22, T1, 6th Period</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10">
       <c r="A89" s="2" t="s">
         <v>260</v>
       </c>
@@ -7441,7 +7446,7 @@
         <v>:*:pjaqueline543::uu0aiq ;Waves, 21-22, T1, 6th Period</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10">
       <c r="A90" s="2" t="s">
         <v>263</v>
       </c>
@@ -7485,17 +7490,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E08AC0-4F68-4077-A972-06D1CF1E72A2}">
   <dimension ref="A1:C565"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A557" sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="72.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>767</v>
       </c>
@@ -7506,7 +7509,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>768</v>
       </c>
@@ -7517,7 +7520,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>769</v>
       </c>
@@ -7528,7 +7531,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>770</v>
       </c>
@@ -7539,7 +7542,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>771</v>
       </c>
@@ -7550,7 +7553,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>749</v>
       </c>
@@ -7559,7 +7562,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>745</v>
       </c>
@@ -7568,7 +7571,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>760</v>
       </c>
@@ -7576,7 +7579,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>762</v>
       </c>
@@ -7585,7 +7588,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>772</v>
       </c>
@@ -7596,7 +7599,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>696</v>
       </c>
@@ -7605,7 +7608,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>773</v>
       </c>
@@ -7616,7 +7619,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>774</v>
       </c>
@@ -7627,7 +7630,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>775</v>
       </c>
@@ -7638,7 +7641,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>729</v>
       </c>
@@ -7647,7 +7650,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>776</v>
       </c>
@@ -7658,7 +7661,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>777</v>
       </c>
@@ -7669,7 +7672,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>723</v>
       </c>
@@ -7678,7 +7681,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>778</v>
       </c>
@@ -7689,7 +7692,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>779</v>
       </c>
@@ -7700,7 +7703,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>697</v>
       </c>
@@ -7709,7 +7712,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>780</v>
       </c>
@@ -7720,7 +7723,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>781</v>
       </c>
@@ -7731,7 +7734,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>782</v>
       </c>
@@ -7742,7 +7745,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>734</v>
       </c>
@@ -7751,7 +7754,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>783</v>
       </c>
@@ -7762,7 +7765,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>784</v>
       </c>
@@ -7773,7 +7776,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>707</v>
       </c>
@@ -7782,7 +7785,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>785</v>
       </c>
@@ -7793,7 +7796,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>786</v>
       </c>
@@ -7804,7 +7807,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>787</v>
       </c>
@@ -7815,7 +7818,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>788</v>
       </c>
@@ -7826,7 +7829,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>789</v>
       </c>
@@ -7837,7 +7840,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>714</v>
       </c>
@@ -7846,7 +7849,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>790</v>
       </c>
@@ -7857,7 +7860,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>791</v>
       </c>
@@ -7868,7 +7871,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>722</v>
       </c>
@@ -7877,7 +7880,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>728</v>
       </c>
@@ -7886,7 +7889,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>792</v>
       </c>
@@ -7897,7 +7900,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>793</v>
       </c>
@@ -7908,7 +7911,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>757</v>
       </c>
@@ -7916,7 +7919,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>794</v>
       </c>
@@ -7927,7 +7930,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>795</v>
       </c>
@@ -7938,7 +7941,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>713</v>
       </c>
@@ -7947,7 +7950,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>796</v>
       </c>
@@ -7958,7 +7961,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>797</v>
       </c>
@@ -7969,7 +7972,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>699</v>
       </c>
@@ -7978,7 +7981,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>798</v>
       </c>
@@ -7989,7 +7992,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>799</v>
       </c>
@@ -8000,7 +8003,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>800</v>
       </c>
@@ -8011,7 +8014,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>801</v>
       </c>
@@ -8022,7 +8025,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>802</v>
       </c>
@@ -8033,7 +8036,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>803</v>
       </c>
@@ -8044,7 +8047,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>804</v>
       </c>
@@ -8055,7 +8058,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>744</v>
       </c>
@@ -8064,7 +8067,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>805</v>
       </c>
@@ -8075,7 +8078,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>806</v>
       </c>
@@ -8086,7 +8089,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>807</v>
       </c>
@@ -8097,7 +8100,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>808</v>
       </c>
@@ -8108,7 +8111,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>809</v>
       </c>
@@ -8119,7 +8122,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>810</v>
       </c>
@@ -8130,7 +8133,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>700</v>
       </c>
@@ -8139,7 +8142,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>756</v>
       </c>
@@ -8147,7 +8150,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>763</v>
       </c>
@@ -8158,7 +8161,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>811</v>
       </c>
@@ -8169,7 +8172,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>708</v>
       </c>
@@ -8178,7 +8181,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>812</v>
       </c>
@@ -8189,7 +8192,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>813</v>
       </c>
@@ -8200,7 +8203,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>715</v>
       </c>
@@ -8209,7 +8212,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>764</v>
       </c>
@@ -8220,7 +8223,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>814</v>
       </c>
@@ -8231,7 +8234,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>815</v>
       </c>
@@ -8242,7 +8245,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>816</v>
       </c>
@@ -8253,7 +8256,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>817</v>
       </c>
@@ -8264,7 +8267,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>719</v>
       </c>
@@ -8273,7 +8276,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>818</v>
       </c>
@@ -8284,7 +8287,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>819</v>
       </c>
@@ -8295,7 +8298,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>820</v>
       </c>
@@ -8306,7 +8309,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>821</v>
       </c>
@@ -8317,7 +8320,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>759</v>
       </c>
@@ -8325,7 +8328,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>822</v>
       </c>
@@ -8336,7 +8339,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>823</v>
       </c>
@@ -8347,7 +8350,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>693</v>
       </c>
@@ -8356,7 +8359,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>824</v>
       </c>
@@ -8367,7 +8370,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>825</v>
       </c>
@@ -8378,7 +8381,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>826</v>
       </c>
@@ -8389,7 +8392,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>703</v>
       </c>
@@ -8398,7 +8401,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>827</v>
       </c>
@@ -8409,7 +8412,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>752</v>
       </c>
@@ -8417,7 +8420,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>828</v>
       </c>
@@ -8428,7 +8431,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>829</v>
       </c>
@@ -8439,7 +8442,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>765</v>
       </c>
@@ -8450,7 +8453,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>830</v>
       </c>
@@ -8461,7 +8464,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>831</v>
       </c>
@@ -8472,7 +8475,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>832</v>
       </c>
@@ -8483,7 +8486,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>746</v>
       </c>
@@ -8492,7 +8495,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>833</v>
       </c>
@@ -8503,7 +8506,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>834</v>
       </c>
@@ -8514,7 +8517,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>835</v>
       </c>
@@ -8525,7 +8528,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>836</v>
       </c>
@@ -8536,7 +8539,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>837</v>
       </c>
@@ -8547,7 +8550,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>742</v>
       </c>
@@ -8556,7 +8559,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>726</v>
       </c>
@@ -8565,7 +8568,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>755</v>
       </c>
@@ -8573,7 +8576,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>838</v>
       </c>
@@ -8584,7 +8587,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>839</v>
       </c>
@@ -8595,7 +8598,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>840</v>
       </c>
@@ -8606,7 +8609,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>841</v>
       </c>
@@ -8617,7 +8620,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>842</v>
       </c>
@@ -8628,7 +8631,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>843</v>
       </c>
@@ -8639,7 +8642,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>721</v>
       </c>
@@ -8648,7 +8651,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>844</v>
       </c>
@@ -8659,7 +8662,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>845</v>
       </c>
@@ -8670,7 +8673,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>753</v>
       </c>
@@ -8678,7 +8681,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>846</v>
       </c>
@@ -8689,7 +8692,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>847</v>
       </c>
@@ -8700,7 +8703,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>848</v>
       </c>
@@ -8711,7 +8714,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>849</v>
       </c>
@@ -8722,7 +8725,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>850</v>
       </c>
@@ -8733,7 +8736,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>704</v>
       </c>
@@ -8742,7 +8745,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>851</v>
       </c>
@@ -8753,7 +8756,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>754</v>
       </c>
@@ -8761,7 +8764,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>691</v>
       </c>
@@ -8770,7 +8773,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>852</v>
       </c>
@@ -8781,7 +8784,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>853</v>
       </c>
@@ -8792,7 +8795,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>761</v>
       </c>
@@ -8800,7 +8803,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>854</v>
       </c>
@@ -8811,7 +8814,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>855</v>
       </c>
@@ -8822,7 +8825,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>856</v>
       </c>
@@ -8833,7 +8836,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>695</v>
       </c>
@@ -8842,7 +8845,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>748</v>
       </c>
@@ -8851,7 +8854,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>692</v>
       </c>
@@ -8860,7 +8863,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>857</v>
       </c>
@@ -8871,7 +8874,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>724</v>
       </c>
@@ -8880,7 +8883,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>687</v>
       </c>
@@ -8889,7 +8892,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>858</v>
       </c>
@@ -8900,7 +8903,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>859</v>
       </c>
@@ -8911,7 +8914,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>747</v>
       </c>
@@ -8920,7 +8923,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>860</v>
       </c>
@@ -8931,7 +8934,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>750</v>
       </c>
@@ -8940,7 +8943,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>730</v>
       </c>
@@ -8949,7 +8952,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>861</v>
       </c>
@@ -8960,7 +8963,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>862</v>
       </c>
@@ -8971,7 +8974,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>689</v>
       </c>
@@ -8980,7 +8983,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>863</v>
       </c>
@@ -8991,7 +8994,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>733</v>
       </c>
@@ -9000,7 +9003,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>864</v>
       </c>
@@ -9011,7 +9014,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>865</v>
       </c>
@@ -9022,7 +9025,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>701</v>
       </c>
@@ -9031,7 +9034,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>866</v>
       </c>
@@ -9042,7 +9045,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>766</v>
       </c>
@@ -9053,7 +9056,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>867</v>
       </c>
@@ -9064,7 +9067,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>868</v>
       </c>
@@ -9075,7 +9078,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>869</v>
       </c>
@@ -9086,7 +9089,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>870</v>
       </c>
@@ -9097,7 +9100,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>725</v>
       </c>
@@ -9106,7 +9109,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>871</v>
       </c>
@@ -9117,7 +9120,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>716</v>
       </c>
@@ -9126,7 +9129,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>872</v>
       </c>
@@ -9137,7 +9140,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>873</v>
       </c>
@@ -9148,7 +9151,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>874</v>
       </c>
@@ -9159,7 +9162,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>875</v>
       </c>
@@ -9170,7 +9173,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>876</v>
       </c>
@@ -9181,7 +9184,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>1168</v>
       </c>
@@ -9192,7 +9195,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>877</v>
       </c>
@@ -9203,7 +9206,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>705</v>
       </c>
@@ -9212,7 +9215,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>878</v>
       </c>
@@ -9223,7 +9226,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>879</v>
       </c>
@@ -9234,7 +9237,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>880</v>
       </c>
@@ -9245,7 +9248,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>740</v>
       </c>
@@ -9254,7 +9257,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>881</v>
       </c>
@@ -9265,7 +9268,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>882</v>
       </c>
@@ -9276,7 +9279,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>883</v>
       </c>
@@ -9287,7 +9290,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>884</v>
       </c>
@@ -9298,7 +9301,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>885</v>
       </c>
@@ -9309,7 +9312,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>743</v>
       </c>
@@ -9318,7 +9321,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>1169</v>
       </c>
@@ -9329,7 +9332,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>886</v>
       </c>
@@ -9340,7 +9343,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>887</v>
       </c>
@@ -9351,7 +9354,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>888</v>
       </c>
@@ -9362,7 +9365,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>889</v>
       </c>
@@ -9373,7 +9376,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>706</v>
       </c>
@@ -9382,7 +9385,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>890</v>
       </c>
@@ -9393,7 +9396,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>891</v>
       </c>
@@ -9404,7 +9407,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>892</v>
       </c>
@@ -9415,7 +9418,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>893</v>
       </c>
@@ -9426,7 +9429,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>894</v>
       </c>
@@ -9437,7 +9440,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>895</v>
       </c>
@@ -9448,7 +9451,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>896</v>
       </c>
@@ -9459,7 +9462,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>897</v>
       </c>
@@ -9470,7 +9473,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>736</v>
       </c>
@@ -9479,7 +9482,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>898</v>
       </c>
@@ -9490,7 +9493,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>720</v>
       </c>
@@ -9499,7 +9502,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>899</v>
       </c>
@@ -9510,7 +9513,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>751</v>
       </c>
@@ -9519,7 +9522,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>900</v>
       </c>
@@ -9530,7 +9533,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>901</v>
       </c>
@@ -9541,7 +9544,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>902</v>
       </c>
@@ -9552,7 +9555,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>688</v>
       </c>
@@ -9561,7 +9564,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>903</v>
       </c>
@@ -9572,7 +9575,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>904</v>
       </c>
@@ -9583,7 +9586,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>694</v>
       </c>
@@ -9592,7 +9595,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>718</v>
       </c>
@@ -9601,7 +9604,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>905</v>
       </c>
@@ -9612,7 +9615,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>906</v>
       </c>
@@ -9623,7 +9626,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>907</v>
       </c>
@@ -9634,7 +9637,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>908</v>
       </c>
@@ -9645,7 +9648,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>909</v>
       </c>
@@ -9656,7 +9659,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>1170</v>
       </c>
@@ -9667,7 +9670,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>910</v>
       </c>
@@ -9678,7 +9681,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>702</v>
       </c>
@@ -9687,7 +9690,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>1171</v>
       </c>
@@ -9698,7 +9701,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>911</v>
       </c>
@@ -9709,7 +9712,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>912</v>
       </c>
@@ -9720,7 +9723,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>913</v>
       </c>
@@ -9731,7 +9734,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>914</v>
       </c>
@@ -9742,7 +9745,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>915</v>
       </c>
@@ -9753,7 +9756,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>916</v>
       </c>
@@ -9764,7 +9767,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>737</v>
       </c>
@@ -9773,7 +9776,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>917</v>
       </c>
@@ -9784,7 +9787,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>918</v>
       </c>
@@ -9795,7 +9798,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>919</v>
       </c>
@@ -9806,7 +9809,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>920</v>
       </c>
@@ -9817,7 +9820,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>921</v>
       </c>
@@ -9828,7 +9831,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>922</v>
       </c>
@@ -9839,7 +9842,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>923</v>
       </c>
@@ -9850,7 +9853,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>924</v>
       </c>
@@ -9861,7 +9864,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>711</v>
       </c>
@@ -9870,7 +9873,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>925</v>
       </c>
@@ -9881,7 +9884,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>926</v>
       </c>
@@ -9892,7 +9895,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>927</v>
       </c>
@@ -9903,7 +9906,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>928</v>
       </c>
@@ -9914,7 +9917,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>1239</v>
       </c>
@@ -9922,7 +9925,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>1235</v>
       </c>
@@ -9930,7 +9933,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>1250</v>
       </c>
@@ -9938,7 +9941,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>1214</v>
       </c>
@@ -9946,7 +9949,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>929</v>
       </c>
@@ -9957,7 +9960,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>1184</v>
       </c>
@@ -9965,7 +9968,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>930</v>
       </c>
@@ -9976,7 +9979,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>931</v>
       </c>
@@ -9987,7 +9990,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>932</v>
       </c>
@@ -9998,7 +10001,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>1218</v>
       </c>
@@ -10006,7 +10009,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>933</v>
       </c>
@@ -10017,7 +10020,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>934</v>
       </c>
@@ -10028,7 +10031,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>1211</v>
       </c>
@@ -10036,7 +10039,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>935</v>
       </c>
@@ -10047,7 +10050,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>936</v>
       </c>
@@ -10058,7 +10061,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>1185</v>
       </c>
@@ -10066,7 +10069,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>937</v>
       </c>
@@ -10077,7 +10080,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>938</v>
       </c>
@@ -10088,7 +10091,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>939</v>
       </c>
@@ -10099,7 +10102,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>1223</v>
       </c>
@@ -10107,7 +10110,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>940</v>
       </c>
@@ -10118,7 +10121,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>941</v>
       </c>
@@ -10129,7 +10132,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>1195</v>
       </c>
@@ -10137,7 +10140,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>942</v>
       </c>
@@ -10148,7 +10151,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>943</v>
       </c>
@@ -10159,7 +10162,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
         <v>944</v>
       </c>
@@ -10170,7 +10173,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
         <v>945</v>
       </c>
@@ -10181,7 +10184,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
         <v>946</v>
       </c>
@@ -10192,7 +10195,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
         <v>1202</v>
       </c>
@@ -10200,7 +10203,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>947</v>
       </c>
@@ -10211,7 +10214,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
         <v>948</v>
       </c>
@@ -10222,7 +10225,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
         <v>1210</v>
       </c>
@@ -10230,7 +10233,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
         <v>1217</v>
       </c>
@@ -10238,7 +10241,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
         <v>949</v>
       </c>
@@ -10249,7 +10252,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
         <v>950</v>
       </c>
@@ -10260,7 +10263,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
         <v>1247</v>
       </c>
@@ -10268,7 +10271,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
         <v>951</v>
       </c>
@@ -10279,7 +10282,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
         <v>952</v>
       </c>
@@ -10290,7 +10293,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
         <v>1201</v>
       </c>
@@ -10298,7 +10301,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
         <v>953</v>
       </c>
@@ -10309,7 +10312,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
         <v>954</v>
       </c>
@@ -10320,7 +10323,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
         <v>1187</v>
       </c>
@@ -10328,7 +10331,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
         <v>955</v>
       </c>
@@ -10339,7 +10342,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
         <v>956</v>
       </c>
@@ -10350,7 +10353,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
         <v>957</v>
       </c>
@@ -10361,7 +10364,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
         <v>958</v>
       </c>
@@ -10372,7 +10375,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
         <v>959</v>
       </c>
@@ -10383,7 +10386,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
         <v>960</v>
       </c>
@@ -10394,7 +10397,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
         <v>961</v>
       </c>
@@ -10405,7 +10408,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
         <v>1234</v>
       </c>
@@ -10413,7 +10416,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
         <v>962</v>
       </c>
@@ -10424,7 +10427,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
         <v>963</v>
       </c>
@@ -10435,7 +10438,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
         <v>964</v>
       </c>
@@ -10446,7 +10449,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
         <v>965</v>
       </c>
@@ -10457,7 +10460,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
         <v>966</v>
       </c>
@@ -10468,7 +10471,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
         <v>967</v>
       </c>
@@ -10479,7 +10482,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
         <v>1188</v>
       </c>
@@ -10487,7 +10490,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
         <v>1246</v>
       </c>
@@ -10495,7 +10498,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
         <v>968</v>
       </c>
@@ -10506,7 +10509,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
         <v>969</v>
       </c>
@@ -10517,7 +10520,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
         <v>1196</v>
       </c>
@@ -10525,7 +10528,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
         <v>970</v>
       </c>
@@ -10536,7 +10539,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
         <v>971</v>
       </c>
@@ -10547,7 +10550,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3">
       <c r="A296" t="s">
         <v>1203</v>
       </c>
@@ -10555,7 +10558,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3">
       <c r="A297" t="s">
         <v>972</v>
       </c>
@@ -10566,7 +10569,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
         <v>973</v>
       </c>
@@ -10577,7 +10580,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3">
       <c r="A299" t="s">
         <v>974</v>
       </c>
@@ -10588,7 +10591,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3">
       <c r="A300" t="s">
         <v>975</v>
       </c>
@@ -10599,7 +10602,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3">
       <c r="A301" t="s">
         <v>976</v>
       </c>
@@ -10610,7 +10613,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3">
       <c r="A302" t="s">
         <v>1207</v>
       </c>
@@ -10618,7 +10621,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3">
       <c r="A303" t="s">
         <v>977</v>
       </c>
@@ -10629,7 +10632,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3">
       <c r="A304" t="s">
         <v>978</v>
       </c>
@@ -10640,7 +10643,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3">
       <c r="A305" t="s">
         <v>979</v>
       </c>
@@ -10651,7 +10654,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3">
       <c r="A306" t="s">
         <v>980</v>
       </c>
@@ -10662,7 +10665,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3">
       <c r="A307" t="s">
         <v>1249</v>
       </c>
@@ -10670,7 +10673,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3">
       <c r="A308" t="s">
         <v>981</v>
       </c>
@@ -10681,7 +10684,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3">
       <c r="A309" t="s">
         <v>982</v>
       </c>
@@ -10692,7 +10695,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3">
       <c r="A310" t="s">
         <v>1181</v>
       </c>
@@ -10700,7 +10703,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3">
       <c r="A311" t="s">
         <v>983</v>
       </c>
@@ -10711,7 +10714,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3">
       <c r="A312" t="s">
         <v>984</v>
       </c>
@@ -10722,7 +10725,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3">
       <c r="A313" t="s">
         <v>985</v>
       </c>
@@ -10733,7 +10736,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3">
       <c r="A314" t="s">
         <v>986</v>
       </c>
@@ -10744,7 +10747,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3">
       <c r="A315" t="s">
         <v>1191</v>
       </c>
@@ -10752,7 +10755,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
         <v>987</v>
       </c>
@@ -10763,7 +10766,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3">
       <c r="A317" t="s">
         <v>1242</v>
       </c>
@@ -10771,7 +10774,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
         <v>988</v>
       </c>
@@ -10782,7 +10785,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3">
       <c r="A319" t="s">
         <v>989</v>
       </c>
@@ -10793,7 +10796,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
         <v>990</v>
       </c>
@@ -10804,7 +10807,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3">
       <c r="A321" t="s">
         <v>991</v>
       </c>
@@ -10815,7 +10818,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
         <v>992</v>
       </c>
@@ -10826,7 +10829,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
         <v>993</v>
       </c>
@@ -10837,7 +10840,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
         <v>994</v>
       </c>
@@ -10848,7 +10851,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3">
       <c r="A325" t="s">
         <v>698</v>
       </c>
@@ -10857,7 +10860,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3">
       <c r="A326" t="s">
         <v>1236</v>
       </c>
@@ -10865,7 +10868,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
         <v>995</v>
       </c>
@@ -10876,7 +10879,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
         <v>996</v>
       </c>
@@ -10887,7 +10890,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
         <v>997</v>
       </c>
@@ -10898,7 +10901,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
         <v>998</v>
       </c>
@@ -10909,7 +10912,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
         <v>999</v>
       </c>
@@ -10920,7 +10923,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
         <v>1232</v>
       </c>
@@ -10928,7 +10931,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
         <v>1215</v>
       </c>
@@ -10936,7 +10939,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
         <v>1245</v>
       </c>
@@ -10944,7 +10947,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
         <v>1000</v>
       </c>
@@ -10955,7 +10958,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
         <v>1001</v>
       </c>
@@ -10966,7 +10969,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3">
       <c r="A337" t="s">
         <v>1002</v>
       </c>
@@ -10977,7 +10980,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3">
       <c r="A338" t="s">
         <v>1003</v>
       </c>
@@ -10988,7 +10991,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3">
       <c r="A339" t="s">
         <v>1004</v>
       </c>
@@ -10999,7 +11002,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3">
       <c r="A340" t="s">
         <v>1005</v>
       </c>
@@ -11010,7 +11013,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3">
       <c r="A341" t="s">
         <v>1209</v>
       </c>
@@ -11018,7 +11021,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3">
       <c r="A342" t="s">
         <v>1006</v>
       </c>
@@ -11029,7 +11032,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3">
       <c r="A343" t="s">
         <v>1007</v>
       </c>
@@ -11040,7 +11043,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3">
       <c r="A344" t="s">
         <v>1243</v>
       </c>
@@ -11048,7 +11051,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3">
       <c r="A345" t="s">
         <v>1008</v>
       </c>
@@ -11059,7 +11062,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3">
       <c r="A346" t="s">
         <v>1009</v>
       </c>
@@ -11070,7 +11073,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3">
       <c r="A347" t="s">
         <v>1010</v>
       </c>
@@ -11081,7 +11084,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3">
       <c r="A348" t="s">
         <v>1011</v>
       </c>
@@ -11092,7 +11095,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3">
       <c r="A349" t="s">
         <v>1012</v>
       </c>
@@ -11103,7 +11106,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3">
       <c r="A350" t="s">
         <v>1192</v>
       </c>
@@ -11111,7 +11114,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3">
       <c r="A351" t="s">
         <v>1013</v>
       </c>
@@ -11122,7 +11125,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3">
       <c r="A352" t="s">
         <v>1244</v>
       </c>
@@ -11130,7 +11133,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3">
       <c r="A353" t="s">
         <v>1179</v>
       </c>
@@ -11138,7 +11141,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3">
       <c r="A354" t="s">
         <v>1014</v>
       </c>
@@ -11149,7 +11152,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3">
       <c r="A355" t="s">
         <v>1015</v>
       </c>
@@ -11160,7 +11163,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3">
       <c r="A356" t="s">
         <v>1251</v>
       </c>
@@ -11168,7 +11171,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3">
       <c r="A357" t="s">
         <v>1016</v>
       </c>
@@ -11179,7 +11182,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3">
       <c r="A358" t="s">
         <v>1017</v>
       </c>
@@ -11190,7 +11193,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3">
       <c r="A359" t="s">
         <v>1018</v>
       </c>
@@ -11201,7 +11204,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3">
       <c r="A360" t="s">
         <v>1183</v>
       </c>
@@ -11209,7 +11212,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3">
       <c r="A361" t="s">
         <v>1238</v>
       </c>
@@ -11217,7 +11220,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:3">
       <c r="A362" t="s">
         <v>1180</v>
       </c>
@@ -11225,7 +11228,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:3">
       <c r="A363" t="s">
         <v>1019</v>
       </c>
@@ -11236,7 +11239,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:3">
       <c r="A364" t="s">
         <v>1212</v>
       </c>
@@ -11244,7 +11247,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:3">
       <c r="A365" t="s">
         <v>1175</v>
       </c>
@@ -11252,7 +11255,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:3">
       <c r="A366" t="s">
         <v>1020</v>
       </c>
@@ -11263,7 +11266,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:3">
       <c r="A367" t="s">
         <v>1021</v>
       </c>
@@ -11274,7 +11277,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:3">
       <c r="A368" t="s">
         <v>1237</v>
       </c>
@@ -11282,7 +11285,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:3">
       <c r="A369" t="s">
         <v>1022</v>
       </c>
@@ -11293,7 +11296,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:3">
       <c r="A370" t="s">
         <v>1240</v>
       </c>
@@ -11301,7 +11304,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:3">
       <c r="A371" t="s">
         <v>1219</v>
       </c>
@@ -11309,7 +11312,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:3">
       <c r="A372" t="s">
         <v>1023</v>
       </c>
@@ -11320,7 +11323,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:3">
       <c r="A373" t="s">
         <v>1024</v>
       </c>
@@ -11331,7 +11334,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:3">
       <c r="A374" t="s">
         <v>1177</v>
       </c>
@@ -11339,7 +11342,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:3">
       <c r="A375" t="s">
         <v>1025</v>
       </c>
@@ -11350,7 +11353,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:3">
       <c r="A376" t="s">
         <v>1222</v>
       </c>
@@ -11358,7 +11361,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:3">
       <c r="A377" t="s">
         <v>1026</v>
       </c>
@@ -11369,7 +11372,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:3">
       <c r="A378" t="s">
         <v>1027</v>
       </c>
@@ -11380,7 +11383,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:3">
       <c r="A379" t="s">
         <v>1189</v>
       </c>
@@ -11388,7 +11391,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:3">
       <c r="A380" t="s">
         <v>1028</v>
       </c>
@@ -11399,7 +11402,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:3">
       <c r="A381" t="s">
         <v>1029</v>
       </c>
@@ -11410,7 +11413,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:3">
       <c r="A382" t="s">
         <v>1030</v>
       </c>
@@ -11421,7 +11424,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:3">
       <c r="A383" t="s">
         <v>1031</v>
       </c>
@@ -11432,7 +11435,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:3">
       <c r="A384" t="s">
         <v>1032</v>
       </c>
@@ -11443,7 +11446,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:3">
       <c r="A385" t="s">
         <v>1033</v>
       </c>
@@ -11454,7 +11457,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:3">
       <c r="A386" t="s">
         <v>1213</v>
       </c>
@@ -11462,7 +11465,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:3">
       <c r="A387" t="s">
         <v>1034</v>
       </c>
@@ -11473,7 +11476,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:3">
       <c r="A388" t="s">
         <v>1204</v>
       </c>
@@ -11481,7 +11484,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:3">
       <c r="A389" t="s">
         <v>1035</v>
       </c>
@@ -11492,7 +11495,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:3">
       <c r="A390" t="s">
         <v>1036</v>
       </c>
@@ -11503,7 +11506,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:3">
       <c r="A391" t="s">
         <v>1037</v>
       </c>
@@ -11514,7 +11517,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:3">
       <c r="A392" t="s">
         <v>1038</v>
       </c>
@@ -11525,7 +11528,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:3">
       <c r="A393" t="s">
         <v>1039</v>
       </c>
@@ -11536,7 +11539,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:3">
       <c r="A394" t="s">
         <v>1040</v>
       </c>
@@ -11547,7 +11550,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:3">
       <c r="A395" t="s">
         <v>1041</v>
       </c>
@@ -11558,7 +11561,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:3">
       <c r="A396" t="s">
         <v>1193</v>
       </c>
@@ -11566,7 +11569,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:3">
       <c r="A397" t="s">
         <v>1042</v>
       </c>
@@ -11577,7 +11580,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:3">
       <c r="A398" t="s">
         <v>1043</v>
       </c>
@@ -11585,7 +11588,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:3">
       <c r="A399" t="s">
         <v>1044</v>
       </c>
@@ -11593,12 +11596,12 @@
         <v>543</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:3">
       <c r="A400" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:2">
       <c r="A401" t="s">
         <v>1045</v>
       </c>
@@ -11606,7 +11609,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:2">
       <c r="A402" t="s">
         <v>1046</v>
       </c>
@@ -11614,7 +11617,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:2">
       <c r="A403" t="s">
         <v>1047</v>
       </c>
@@ -11622,7 +11625,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:2">
       <c r="A404" t="s">
         <v>1048</v>
       </c>
@@ -11630,7 +11633,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:2">
       <c r="A405" t="s">
         <v>1049</v>
       </c>
@@ -11638,12 +11641,12 @@
         <v>488</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:2">
       <c r="A406" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:2">
       <c r="A407" t="s">
         <v>1050</v>
       </c>
@@ -11651,7 +11654,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:2">
       <c r="A408" t="s">
         <v>1051</v>
       </c>
@@ -11659,7 +11662,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:2">
       <c r="A409" t="s">
         <v>1052</v>
       </c>
@@ -11667,7 +11670,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:2">
       <c r="A410" t="s">
         <v>1053</v>
       </c>
@@ -11675,7 +11678,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:2">
       <c r="A411" t="s">
         <v>1054</v>
       </c>
@@ -11683,12 +11686,12 @@
         <v>382</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:2">
       <c r="A412" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:2">
       <c r="A413" t="s">
         <v>1055</v>
       </c>
@@ -11696,7 +11699,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:2">
       <c r="A414" t="s">
         <v>1056</v>
       </c>
@@ -11704,7 +11707,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:2">
       <c r="A415" t="s">
         <v>1057</v>
       </c>
@@ -11712,7 +11715,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:2">
       <c r="A416" t="s">
         <v>1058</v>
       </c>
@@ -11720,7 +11723,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:2">
       <c r="A417" t="s">
         <v>1059</v>
       </c>
@@ -11728,7 +11731,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:2">
       <c r="A418" t="s">
         <v>1060</v>
       </c>
@@ -11736,7 +11739,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:2">
       <c r="A419" t="s">
         <v>1061</v>
       </c>
@@ -11744,12 +11747,12 @@
         <v>646</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:2">
       <c r="A420" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:2">
       <c r="A421" t="s">
         <v>1062</v>
       </c>
@@ -11757,12 +11760,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:2">
       <c r="A422" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:2">
       <c r="A423" t="s">
         <v>1063</v>
       </c>
@@ -11770,12 +11773,12 @@
         <v>552</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:2">
       <c r="A424" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:2">
       <c r="A425" t="s">
         <v>1064</v>
       </c>
@@ -11783,12 +11786,12 @@
         <v>368</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:2">
       <c r="A426" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:2">
       <c r="A427" t="s">
         <v>1065</v>
       </c>
@@ -11796,7 +11799,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:2">
       <c r="A428" t="s">
         <v>1066</v>
       </c>
@@ -11804,7 +11807,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:2">
       <c r="A429" t="s">
         <v>1067</v>
       </c>
@@ -11812,12 +11815,12 @@
         <v>493</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:2">
       <c r="A430" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:2">
       <c r="A431" t="s">
         <v>1068</v>
       </c>
@@ -11825,7 +11828,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:2">
       <c r="A432" t="s">
         <v>1069</v>
       </c>
@@ -11833,17 +11836,17 @@
         <v>441</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:2">
       <c r="A433" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:2">
       <c r="A434" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:2">
       <c r="A435" t="s">
         <v>1070</v>
       </c>
@@ -11851,7 +11854,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:2">
       <c r="A436" t="s">
         <v>1071</v>
       </c>
@@ -11859,7 +11862,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:2">
       <c r="A437" t="s">
         <v>1072</v>
       </c>
@@ -11867,7 +11870,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:2">
       <c r="A438" t="s">
         <v>1073</v>
       </c>
@@ -11875,7 +11878,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:2">
       <c r="A439" t="s">
         <v>1074</v>
       </c>
@@ -11883,7 +11886,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:2">
       <c r="A440" t="s">
         <v>1075</v>
       </c>
@@ -11891,7 +11894,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:2">
       <c r="A441" t="s">
         <v>1076</v>
       </c>
@@ -11899,12 +11902,12 @@
         <v>632</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:2">
       <c r="A442" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:2">
       <c r="A443" t="s">
         <v>1077</v>
       </c>
@@ -11912,7 +11915,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:2">
       <c r="A444" t="s">
         <v>1078</v>
       </c>
@@ -11920,7 +11923,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:2">
       <c r="A445" t="s">
         <v>1079</v>
       </c>
@@ -11928,7 +11931,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:2">
       <c r="A446" t="s">
         <v>1080</v>
       </c>
@@ -11936,7 +11939,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:2">
       <c r="A447" t="s">
         <v>1081</v>
       </c>
@@ -11944,7 +11947,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:2">
       <c r="A448" t="s">
         <v>1082</v>
       </c>
@@ -11952,7 +11955,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:2">
       <c r="A449" t="s">
         <v>1083</v>
       </c>
@@ -11960,12 +11963,12 @@
         <v>480</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:2">
       <c r="A450" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:2">
       <c r="A451" t="s">
         <v>1084</v>
       </c>
@@ -11973,7 +11976,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:2">
       <c r="A452" t="s">
         <v>1085</v>
       </c>
@@ -11981,7 +11984,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:2">
       <c r="A453" t="s">
         <v>1086</v>
       </c>
@@ -11989,7 +11992,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:2">
       <c r="A454" t="s">
         <v>1087</v>
       </c>
@@ -11997,7 +12000,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:2">
       <c r="A455" t="s">
         <v>1088</v>
       </c>
@@ -12005,7 +12008,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:2">
       <c r="A456" t="s">
         <v>1089</v>
       </c>
@@ -12013,12 +12016,12 @@
         <v>665</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:2">
       <c r="A457" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:2">
       <c r="A458" t="s">
         <v>1090</v>
       </c>
@@ -12026,7 +12029,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:2">
       <c r="A459" t="s">
         <v>1091</v>
       </c>
@@ -12034,7 +12037,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:2">
       <c r="A460" t="s">
         <v>1092</v>
       </c>
@@ -12042,17 +12045,17 @@
         <v>547</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:2">
       <c r="A461" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:2">
       <c r="A462" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:2">
       <c r="A463" t="s">
         <v>1093</v>
       </c>
@@ -12060,7 +12063,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:2">
       <c r="A464" t="s">
         <v>1094</v>
       </c>
@@ -12068,7 +12071,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:2">
       <c r="A465" t="s">
         <v>1095</v>
       </c>
@@ -12076,22 +12079,22 @@
         <v>321</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:2">
       <c r="A466" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:2">
       <c r="A467" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:2">
       <c r="A468" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:2">
       <c r="A469" t="s">
         <v>1096</v>
       </c>
@@ -12099,12 +12102,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:2">
       <c r="A470" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:2">
       <c r="A471" t="s">
         <v>1097</v>
       </c>
@@ -12112,7 +12115,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:2">
       <c r="A472" t="s">
         <v>1098</v>
       </c>
@@ -12120,7 +12123,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:2">
       <c r="A473" t="s">
         <v>1099</v>
       </c>
@@ -12128,12 +12131,12 @@
         <v>531</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:2">
       <c r="A474" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:2">
       <c r="A475" t="s">
         <v>1100</v>
       </c>
@@ -12141,7 +12144,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:2">
       <c r="A476" t="s">
         <v>1101</v>
       </c>
@@ -12149,7 +12152,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:2">
       <c r="A477" t="s">
         <v>1102</v>
       </c>
@@ -12157,12 +12160,12 @@
         <v>653</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:2">
       <c r="A478" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:2">
       <c r="A479" t="s">
         <v>1103</v>
       </c>
@@ -12170,7 +12173,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:2">
       <c r="A480" t="s">
         <v>1104</v>
       </c>
@@ -12178,7 +12181,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:2">
       <c r="A481" t="s">
         <v>1105</v>
       </c>
@@ -12186,7 +12189,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:2">
       <c r="A482" t="s">
         <v>1106</v>
       </c>
@@ -12194,7 +12197,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:2">
       <c r="A483" t="s">
         <v>1107</v>
       </c>
@@ -12202,17 +12205,17 @@
         <v>324</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:2">
       <c r="A484" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:2">
       <c r="A485" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:2">
       <c r="A486" t="s">
         <v>1108</v>
       </c>
@@ -12220,12 +12223,12 @@
         <v>682</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:2">
       <c r="A487" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:2">
       <c r="A488" t="s">
         <v>1109</v>
       </c>
@@ -12233,7 +12236,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:2">
       <c r="A489" t="s">
         <v>1110</v>
       </c>
@@ -12241,7 +12244,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:2">
       <c r="A490" t="s">
         <v>1111</v>
       </c>
@@ -12249,7 +12252,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:2">
       <c r="A491" t="s">
         <v>1112</v>
       </c>
@@ -12257,12 +12260,12 @@
         <v>387</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:2">
       <c r="A492" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:2">
       <c r="A493" t="s">
         <v>1113</v>
       </c>
@@ -12270,7 +12273,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:2">
       <c r="A494" t="s">
         <v>1114</v>
       </c>
@@ -12278,7 +12281,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:2">
       <c r="A495" t="s">
         <v>1115</v>
       </c>
@@ -12286,7 +12289,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:2">
       <c r="A496" t="s">
         <v>1116</v>
       </c>
@@ -12294,12 +12297,12 @@
         <v>432</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:2">
       <c r="A497" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:2">
       <c r="A498" t="s">
         <v>1117</v>
       </c>
@@ -12307,12 +12310,12 @@
         <v>658</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:2">
       <c r="A499" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:2">
       <c r="A500" t="s">
         <v>1118</v>
       </c>
@@ -12320,7 +12323,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:2">
       <c r="A501" t="s">
         <v>1119</v>
       </c>
@@ -12328,7 +12331,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:2">
       <c r="A502" t="s">
         <v>1120</v>
       </c>
@@ -12336,12 +12339,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:2">
       <c r="A503" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:2">
       <c r="A504" t="s">
         <v>1121</v>
       </c>
@@ -12349,13 +12352,13 @@
         <v>443</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:2">
       <c r="A505" t="s">
         <v>731</v>
       </c>
       <c r="B505"/>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:2">
       <c r="A506" t="s">
         <v>1122</v>
       </c>
@@ -12363,7 +12366,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:2">
       <c r="A507" t="s">
         <v>1123</v>
       </c>
@@ -12371,7 +12374,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:2">
       <c r="A508" t="s">
         <v>1124</v>
       </c>
@@ -12379,25 +12382,25 @@
         <v>291</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:2">
       <c r="A509" t="s">
         <v>727</v>
       </c>
       <c r="B509"/>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:2">
       <c r="A510" t="s">
         <v>741</v>
       </c>
       <c r="B510"/>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:2">
       <c r="A511" t="s">
         <v>732</v>
       </c>
       <c r="B511"/>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:2">
       <c r="A512" t="s">
         <v>1125</v>
       </c>
@@ -12405,13 +12408,13 @@
         <v>295</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:2">
       <c r="A513" t="s">
         <v>738</v>
       </c>
       <c r="B513"/>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:2">
       <c r="A514" t="s">
         <v>1172</v>
       </c>
@@ -12419,7 +12422,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:2">
       <c r="A515" t="s">
         <v>1126</v>
       </c>
@@ -12427,7 +12430,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:2">
       <c r="A516" t="s">
         <v>1127</v>
       </c>
@@ -12435,7 +12438,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:2">
       <c r="A517" t="s">
         <v>1128</v>
       </c>
@@ -12443,7 +12446,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:2">
       <c r="A518" t="s">
         <v>1129</v>
       </c>
@@ -12451,7 +12454,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:2">
       <c r="A519" t="s">
         <v>1130</v>
       </c>
@@ -12459,12 +12462,12 @@
         <v>511</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:2">
       <c r="A520" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:2">
       <c r="A521" t="s">
         <v>1131</v>
       </c>
@@ -12472,7 +12475,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:2">
       <c r="A522" t="s">
         <v>1132</v>
       </c>
@@ -12480,7 +12483,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:2">
       <c r="A523" t="s">
         <v>1133</v>
       </c>
@@ -12488,7 +12491,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:2">
       <c r="A524" t="s">
         <v>1134</v>
       </c>
@@ -12496,7 +12499,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:2">
       <c r="A525" t="s">
         <v>1135</v>
       </c>
@@ -12504,7 +12507,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:2">
       <c r="A526" t="s">
         <v>1136</v>
       </c>
@@ -12512,7 +12515,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:2">
       <c r="A527" t="s">
         <v>1137</v>
       </c>
@@ -12520,7 +12523,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:2">
       <c r="A528" t="s">
         <v>1138</v>
       </c>
@@ -12528,7 +12531,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:2">
       <c r="A529" t="s">
         <v>1139</v>
       </c>
@@ -12536,7 +12539,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:2">
       <c r="A530" t="s">
         <v>1140</v>
       </c>
@@ -12544,7 +12547,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:2">
       <c r="A531" t="s">
         <v>1141</v>
       </c>
@@ -12552,7 +12555,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:2">
       <c r="A532" t="s">
         <v>1142</v>
       </c>
@@ -12560,7 +12563,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:2">
       <c r="A533" t="s">
         <v>1143</v>
       </c>
@@ -12568,7 +12571,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:2">
       <c r="A534" t="s">
         <v>1144</v>
       </c>
@@ -12576,7 +12579,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:2">
       <c r="A535" t="s">
         <v>1145</v>
       </c>
@@ -12584,13 +12587,13 @@
         <v>509</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:2">
       <c r="A536" t="s">
         <v>717</v>
       </c>
       <c r="B536"/>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:2">
       <c r="A537" t="s">
         <v>1146</v>
       </c>
@@ -12598,7 +12601,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:2">
       <c r="A538" t="s">
         <v>1147</v>
       </c>
@@ -12606,7 +12609,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:2">
       <c r="A539" t="s">
         <v>1148</v>
       </c>
@@ -12614,7 +12617,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:2">
       <c r="A540" t="s">
         <v>1149</v>
       </c>
@@ -12622,7 +12625,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:2">
       <c r="A541" t="s">
         <v>1150</v>
       </c>
@@ -12630,7 +12633,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:2">
       <c r="A542" t="s">
         <v>1151</v>
       </c>
@@ -12638,19 +12641,19 @@
         <v>294</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:2">
       <c r="A543" t="s">
         <v>709</v>
       </c>
       <c r="B543"/>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:2">
       <c r="A544" t="s">
         <v>735</v>
       </c>
       <c r="B544"/>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:2">
       <c r="A545" t="s">
         <v>1152</v>
       </c>
@@ -12658,13 +12661,13 @@
         <v>614</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:2">
       <c r="A546" t="s">
         <v>739</v>
       </c>
       <c r="B546"/>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:2">
       <c r="A547" t="s">
         <v>1153</v>
       </c>
@@ -12672,7 +12675,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:2">
       <c r="A548" t="s">
         <v>1154</v>
       </c>
@@ -12680,7 +12683,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:2">
       <c r="A549" t="s">
         <v>1155</v>
       </c>
@@ -12688,7 +12691,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:2">
       <c r="A550" t="s">
         <v>1156</v>
       </c>
@@ -12696,13 +12699,13 @@
         <v>358</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:2">
       <c r="A551" t="s">
         <v>712</v>
       </c>
       <c r="B551"/>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:2">
       <c r="A552" t="s">
         <v>1157</v>
       </c>
@@ -12710,7 +12713,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:2">
       <c r="A553" t="s">
         <v>1158</v>
       </c>
@@ -12718,7 +12721,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:2">
       <c r="A554" t="s">
         <v>1159</v>
       </c>
@@ -12726,7 +12729,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:2">
       <c r="A555" t="s">
         <v>1160</v>
       </c>
@@ -12734,13 +12737,13 @@
         <v>410</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:2">
       <c r="A556" t="s">
         <v>690</v>
       </c>
       <c r="B556"/>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:2">
       <c r="A557" t="s">
         <v>1161</v>
       </c>
@@ -12748,13 +12751,13 @@
         <v>568</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:2">
       <c r="A558" t="s">
         <v>1173</v>
       </c>
       <c r="B558"/>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:2">
       <c r="A559" t="s">
         <v>1162</v>
       </c>
@@ -12762,7 +12765,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:2">
       <c r="A560" t="s">
         <v>1163</v>
       </c>
@@ -12770,7 +12773,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:2">
       <c r="A561" t="s">
         <v>1164</v>
       </c>
@@ -12778,13 +12781,13 @@
         <v>290</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:2">
       <c r="A562" t="s">
         <v>710</v>
       </c>
       <c r="B562"/>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:2">
       <c r="A563" t="s">
         <v>1165</v>
       </c>
@@ -12792,7 +12795,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:2">
       <c r="A564" t="s">
         <v>1166</v>
       </c>
@@ -12800,7 +12803,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:2">
       <c r="A565" t="s">
         <v>1167</v>
       </c>
